--- a/Planilha Invest Mais PRO - Simulador Financeiro v1.0.0 PRO.xlsx
+++ b/Planilha Invest Mais PRO - Simulador Financeiro v1.0.0 PRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos DIO\EXCEL com Inteligência Artificial\Projeto Planilha Invest Mais PRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D3F13-0EE5-4329-A043-D793448EC094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6AF361-2BC8-444F-AF1E-B128C2B156C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="633" xr2:uid="{A29B5664-DB3A-4E6A-990E-C1614234A5BF}"/>
   </bookViews>
@@ -277,7 +277,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Mostra quanos anos são necessários para viver de renda.</t>
+          <t>Mostra quantos anos são necessários para viver de renda.</t>
         </r>
       </text>
     </comment>
@@ -291,7 +291,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Mostra quanos anos são necessários para dobrar o patrimônio.</t>
+          <t>Mostra quantos anos são necessários para dobrar o patrimônio.</t>
         </r>
       </text>
     </comment>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
   <si>
     <t>Por quanos anos?</t>
   </si>
@@ -643,6 +643,9 @@
   <si>
     <t>Autor: Fernando Castro</t>
   </si>
+  <si>
+    <t>Fale conosco</t>
+  </si>
 </sst>
 </file>
 
@@ -655,7 +658,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +797,23 @@
     <font>
       <b/>
       <sz val="5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1264,14 +1284,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1704,12 +1725,24 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1915,28 +1948,28 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>442.76118367872346</c:v>
+                  <c:v>388.81425397234045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>935.02702870768223</c:v>
+                  <c:v>771.68768899486406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2270.3482051163032</c:v>
+                  <c:v>1810.2708262015688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4696.2217778205613</c:v>
+                  <c:v>3697.0613827493257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9103.2982884862668</c:v>
+                  <c:v>7124.787557711541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17109.619635732008</c:v>
+                  <c:v>13351.926383347118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31654.67719491656</c:v>
+                  <c:v>24664.748929379544</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58078.635243111821</c:v>
+                  <c:v>45216.716300198081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,7 +2117,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.9</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,28 +2983,28 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>442.76118367872346</c:v>
+                  <c:v>388.81425397234045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>935.02702870768223</c:v>
+                  <c:v>771.68768899486406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2270.3482051163032</c:v>
+                  <c:v>1810.2708262015688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4696.2217778205613</c:v>
+                  <c:v>3697.0613827493257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9103.2982884862668</c:v>
+                  <c:v>7124.787557711541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17109.619635732008</c:v>
+                  <c:v>13351.926383347118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31654.67719491656</c:v>
+                  <c:v>24664.748929379544</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58078.635243111821</c:v>
+                  <c:v>45216.716300198081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3064,28 +3097,28 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44276.118367872346</c:v>
+                  <c:v>38881.425397234045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93502.702870768218</c:v>
+                  <c:v>77168.7688994864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227034.8205116303</c:v>
+                  <c:v>181027.08262015687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>469622.17778205615</c:v>
+                  <c:v>369706.13827493257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>910329.8288486267</c:v>
+                  <c:v>712478.75577115407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1710961.9635732009</c:v>
+                  <c:v>1335192.6383347118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3165467.7194916559</c:v>
+                  <c:v>2466474.8929379545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5807863.5243111821</c:v>
+                  <c:v>4521671.6300198082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,28 +3773,28 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>36800</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>230000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>272000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>314000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3835,28 +3868,28 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7476.1183678723464</c:v>
+                  <c:v>6881.4253972340448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31502.702870768218</c:v>
+                  <c:v>27168.7688994864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123034.8205116303</c:v>
+                  <c:v>101027.08262015687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>323622.17778205615</c:v>
+                  <c:v>259706.13827493257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>722329.8288486267</c:v>
+                  <c:v>572478.75577115407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1480961.9635732009</c:v>
+                  <c:v>1165192.6383347118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2893467.7194916559</c:v>
+                  <c:v>2266474.8929379545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5493863.5243111821</c:v>
+                  <c:v>4291671.6300198082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4876,10 +4909,10 @@
                   <c:v>16333.933971281826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15168.7688994864</c:v>
+                  <c:v>10834.834928204575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5386,10 +5419,10 @@
                   <c:v>16333.933971281826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15168.7688994864</c:v>
+                  <c:v>10834.834928204575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5696,28 +5729,28 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>442.76118367872346</c:v>
+                  <c:v>388.81425397234045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>935.02702870768223</c:v>
+                  <c:v>771.68768899486406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2270.3482051163032</c:v>
+                  <c:v>1810.2708262015688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4696.2217778205613</c:v>
+                  <c:v>3697.0613827493257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9103.2982884862668</c:v>
+                  <c:v>7124.787557711541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17109.619635732008</c:v>
+                  <c:v>13351.926383347118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31654.67719491656</c:v>
+                  <c:v>24664.748929379544</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58078.635243111821</c:v>
+                  <c:v>45216.716300198081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5973,7 +6006,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.9</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5999,7 +6032,7 @@
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
                     <c:v>Independência Financeira
-📅 12,9 anos
+📅 14,6 anos
 💰 R$ 3.500,00</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -6442,28 +6475,28 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>442.76118367872346</c:v>
+                  <c:v>388.81425397234045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>935.02702870768223</c:v>
+                  <c:v>771.68768899486406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2270.3482051163032</c:v>
+                  <c:v>1810.2708262015688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4696.2217778205613</c:v>
+                  <c:v>3697.0613827493257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9103.2982884862668</c:v>
+                  <c:v>7124.787557711541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17109.619635732008</c:v>
+                  <c:v>13351.926383347118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31654.67719491656</c:v>
+                  <c:v>24664.748929379544</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58078.635243111821</c:v>
+                  <c:v>45216.716300198081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6556,28 +6589,28 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44276.118367872346</c:v>
+                  <c:v>38881.425397234045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93502.702870768218</c:v>
+                  <c:v>77168.7688994864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227034.8205116303</c:v>
+                  <c:v>181027.08262015687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>469622.17778205615</c:v>
+                  <c:v>369706.13827493257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>910329.8288486267</c:v>
+                  <c:v>712478.75577115407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1710961.9635732009</c:v>
+                  <c:v>1335192.6383347118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3165467.7194916559</c:v>
+                  <c:v>2466474.8929379545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5807863.5243111821</c:v>
+                  <c:v>4521671.6300198082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7216,28 +7249,28 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>36800</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>230000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>272000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>314000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7311,28 +7344,28 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7476.1183678723464</c:v>
+                  <c:v>6881.4253972340448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31502.702870768218</c:v>
+                  <c:v>27168.7688994864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123034.8205116303</c:v>
+                  <c:v>101027.08262015687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>323622.17778205615</c:v>
+                  <c:v>259706.13827493257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>722329.8288486267</c:v>
+                  <c:v>572478.75577115407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1480961.9635732009</c:v>
+                  <c:v>1165192.6383347118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2893467.7194916559</c:v>
+                  <c:v>2266474.8929379545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5493863.5243111821</c:v>
+                  <c:v>4291671.6300198082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13499,8 +13532,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>435823</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14711,7 +14744,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -14731,11 +14764,16 @@
     <col min="20" max="16384" width="8.88671875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N1" s="115" t="s">
+    <row r="1" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="115"/>
+      <c r="C1" s="116"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="85" t="s">
@@ -14862,7 +14900,7 @@
       </c>
       <c r="C21" s="90"/>
       <c r="D21" s="77">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -14946,11 +14984,11 @@
       <c r="C27" s="84"/>
       <c r="D27" s="33">
         <f>IFERROR(PRODUCT(qtd_anos*12,aporte),"Enrada Inválida!!!")</f>
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="E27" s="58">
         <f>IF(total_investido=0,NA(),total_investido)</f>
-        <v>42000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -14964,11 +15002,11 @@
       <c r="C28" s="84"/>
       <c r="D28" s="33">
         <f>IFERROR(patrimonio_final-juros_patrimonio_inicial-patrimonio_inicial-total_investido,"Enrada Inválida!!!")</f>
-        <v>15168.7688994864</v>
+        <v>10834.834928204575</v>
       </c>
       <c r="E28" s="58">
         <f>IF(rendimento_total=0,NA(),rendimento_total)</f>
-        <v>15168.7688994864</v>
+        <v>10834.834928204575</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -14982,11 +15020,11 @@
       <c r="C29" s="84"/>
       <c r="D29" s="33">
         <f>IFERROR(FV(taxa_mensal,qtd_anos*12,-aporte)+juros_patrimonio_inicial+patrimonio_inicial,"Enrada Inválida!!!")</f>
-        <v>93502.702870768218</v>
+        <v>77168.7688994864</v>
       </c>
       <c r="E29" s="58">
         <f>IF(patrimonio_final=0,NA(),patrimonio_final)</f>
-        <v>93502.702870768218</v>
+        <v>77168.7688994864</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15000,14 +15038,14 @@
       <c r="C30" s="82"/>
       <c r="D30" s="78">
         <f>IFERROR(patrimonio_final*rendimento_carteira,"Enrada Inválida!!!")</f>
-        <v>935.02702870768223</v>
+        <v>771.68768899486406</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:19" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="57">
         <f>VALUE(SUBSTITUTE(D39," Ano(s)",""))</f>
-        <v>12.9</v>
+        <v>14.6</v>
       </c>
       <c r="C31" s="58">
         <f>despesas_mensais</f>
@@ -15018,7 +15056,7 @@
 "📅 "&amp;B31&amp;" anos"&amp;CHAR(10)&amp;
 "💰 R$ "&amp;TEXT(C31,"#.##0,00")</f>
         <v>Independência Financeira
-📅 12,9 anos
+📅 14,6 anos
 💰 R$ 3.500,00</v>
       </c>
       <c r="Q31" s="60"/>
@@ -15037,7 +15075,7 @@
       <c r="C33" s="97"/>
       <c r="D33" s="30">
         <f>IFERROR(renda_mensal_estimada/salario,"Enrada Inválida!!!")</f>
-        <v>0.22262548302563862</v>
+        <v>0.1837351640463962</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15047,7 +15085,7 @@
       <c r="C34" s="95"/>
       <c r="D34" s="23">
         <f>IFERROR(renda_mensal_estimada/despesas_mensais,"Enrada Inválida!!!")</f>
-        <v>0.26715057963076633</v>
+        <v>0.22048219685567544</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15057,7 +15095,7 @@
       <c r="C35" s="95"/>
       <c r="D35" s="23">
         <f>IFERROR((patrimonio_final/total_investido)^(1/qtd_anos)-1,"Enrada Inválida!!!")</f>
-        <v>0.17358614833186703</v>
+        <v>0.20799201466796569</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15067,7 +15105,7 @@
       <c r="C36" s="99"/>
       <c r="D36" s="23">
         <f>IFERROR(rendimento_total/patrimonio_final,"Enrada Inválida!!!")</f>
-        <v>0.16222813281078549</v>
+        <v>0.1404044030081279</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15097,7 +15135,7 @@
       <c r="C39" s="84"/>
       <c r="D39" s="33" t="str">
         <f>IFERROR(TEXT(NPER(taxa_mensal, -aporte, -patrimonio_inicial, patromonio_viver_renda)/12,"###.###.##0,00 ")&amp;"Ano(s)","Enrada Inválida!!!")</f>
-        <v>12,90 Ano(s)</v>
+        <v>14,60 Ano(s)</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15136,11 +15174,11 @@
       </c>
       <c r="C43" s="42">
         <f t="shared" ref="C43:C50" si="1">FV(taxa_mensal,A43*12,-aporte,-patrimonio_inicial)</f>
-        <v>44276.118367872346</v>
+        <v>38881.425397234045</v>
       </c>
       <c r="D43" s="43">
         <f t="shared" ref="D43:D50" si="2">C43*rendimento_carteira</f>
-        <v>442.76118367872346</v>
+        <v>388.81425397234045</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" ref="E43:E50" si="3">despesas_mensais</f>
@@ -15157,11 +15195,11 @@
       </c>
       <c r="C44" s="40">
         <f t="shared" si="1"/>
-        <v>93502.702870768218</v>
+        <v>77168.7688994864</v>
       </c>
       <c r="D44" s="44">
         <f t="shared" si="2"/>
-        <v>935.02702870768223</v>
+        <v>771.68768899486406</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="3"/>
@@ -15178,11 +15216,11 @@
       </c>
       <c r="C45" s="40">
         <f t="shared" si="1"/>
-        <v>227034.8205116303</v>
+        <v>181027.08262015687</v>
       </c>
       <c r="D45" s="44">
         <f t="shared" si="2"/>
-        <v>2270.3482051163032</v>
+        <v>1810.2708262015688</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="3"/>
@@ -15199,11 +15237,11 @@
       </c>
       <c r="C46" s="40">
         <f t="shared" si="1"/>
-        <v>469622.17778205615</v>
+        <v>369706.13827493257</v>
       </c>
       <c r="D46" s="44">
         <f t="shared" si="2"/>
-        <v>4696.2217778205613</v>
+        <v>3697.0613827493257</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="3"/>
@@ -15220,11 +15258,11 @@
       </c>
       <c r="C47" s="40">
         <f t="shared" si="1"/>
-        <v>910329.8288486267</v>
+        <v>712478.75577115407</v>
       </c>
       <c r="D47" s="44">
         <f t="shared" si="2"/>
-        <v>9103.2982884862668</v>
+        <v>7124.787557711541</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="3"/>
@@ -15241,11 +15279,11 @@
       </c>
       <c r="C48" s="45">
         <f t="shared" si="1"/>
-        <v>1710961.9635732009</v>
+        <v>1335192.6383347118</v>
       </c>
       <c r="D48" s="46">
         <f t="shared" si="2"/>
-        <v>17109.619635732008</v>
+        <v>13351.926383347118</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="3"/>
@@ -15262,11 +15300,11 @@
       </c>
       <c r="C49" s="45">
         <f t="shared" si="1"/>
-        <v>3165467.7194916559</v>
+        <v>2466474.8929379545</v>
       </c>
       <c r="D49" s="46">
         <f t="shared" si="2"/>
-        <v>31654.67719491656</v>
+        <v>24664.748929379544</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="3"/>
@@ -15283,11 +15321,11 @@
       </c>
       <c r="C50" s="41">
         <f t="shared" si="1"/>
-        <v>5807863.5243111821</v>
+        <v>4521671.6300198082</v>
       </c>
       <c r="D50" s="47">
         <f t="shared" si="2"/>
-        <v>58078.635243111821</v>
+        <v>45216.716300198081</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="3"/>
@@ -15320,11 +15358,11 @@
       </c>
       <c r="C53" s="42">
         <f t="shared" ref="C53:C60" si="5">PRODUCT(A53*12,aporte)+patrimonio_inicial</f>
-        <v>36800</v>
+        <v>32000</v>
       </c>
       <c r="D53" s="43">
         <f>C43-C53</f>
-        <v>7476.1183678723464</v>
+        <v>6881.4253972340448</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15337,11 +15375,11 @@
       </c>
       <c r="C54" s="40">
         <f t="shared" si="5"/>
-        <v>62000</v>
+        <v>50000</v>
       </c>
       <c r="D54" s="44">
         <f t="shared" ref="D54:D59" si="7">C44-C54</f>
-        <v>31502.702870768218</v>
+        <v>27168.7688994864</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15354,11 +15392,11 @@
       </c>
       <c r="C55" s="40">
         <f t="shared" si="5"/>
-        <v>104000</v>
+        <v>80000</v>
       </c>
       <c r="D55" s="44">
         <f t="shared" si="7"/>
-        <v>123034.8205116303</v>
+        <v>101027.08262015687</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15371,11 +15409,11 @@
       </c>
       <c r="C56" s="40">
         <f t="shared" si="5"/>
-        <v>146000</v>
+        <v>110000</v>
       </c>
       <c r="D56" s="44">
         <f t="shared" si="7"/>
-        <v>323622.17778205615</v>
+        <v>259706.13827493257</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15388,11 +15426,11 @@
       </c>
       <c r="C57" s="40">
         <f t="shared" si="5"/>
-        <v>188000</v>
+        <v>140000</v>
       </c>
       <c r="D57" s="44">
         <f t="shared" si="7"/>
-        <v>722329.8288486267</v>
+        <v>572478.75577115407</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15405,11 +15443,11 @@
       </c>
       <c r="C58" s="45">
         <f t="shared" si="5"/>
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="D58" s="46">
         <f t="shared" si="7"/>
-        <v>1480961.9635732009</v>
+        <v>1165192.6383347118</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15422,11 +15460,11 @@
       </c>
       <c r="C59" s="45">
         <f t="shared" si="5"/>
-        <v>272000</v>
+        <v>200000</v>
       </c>
       <c r="D59" s="46">
         <f t="shared" si="7"/>
-        <v>2893467.7194916559</v>
+        <v>2266474.8929379545</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15439,11 +15477,11 @@
       </c>
       <c r="C60" s="41">
         <f t="shared" si="5"/>
-        <v>314000</v>
+        <v>230000</v>
       </c>
       <c r="D60" s="47">
         <f>C50-C60</f>
-        <v>5493863.5243111821</v>
+        <v>4291671.6300198082</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3"/>
@@ -15462,7 +15500,7 @@
       </c>
       <c r="C64" s="48">
         <f>aporte</f>
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15493,7 +15531,7 @@
       </c>
       <c r="D67" s="49">
         <f t="shared" ref="D67:D72" si="8">C67*investimento_mes</f>
-        <v>224</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15506,7 +15544,7 @@
       </c>
       <c r="D68" s="50">
         <f t="shared" si="8"/>
-        <v>244.99999999999997</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15519,7 +15557,7 @@
       </c>
       <c r="D69" s="50">
         <f t="shared" si="8"/>
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15532,7 +15570,7 @@
       </c>
       <c r="D70" s="50">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15545,7 +15583,7 @@
       </c>
       <c r="D71" s="50">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15558,7 +15596,7 @@
       </c>
       <c r="D72" s="54">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15571,12 +15609,12 @@
       </c>
       <c r="D73" s="56">
         <f>SUM(D67:D72)</f>
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c/HEF4K6iblvE1WsCFaSdI/LDrMU96BOi30JTvs/kJVht12gzOnWduRkENisPhXc+u8tqycrXfI/7z18rvceGg==" saltValue="+TPo0TUDN0J4UtYpLK7fRg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UYbgnGX1VVgfiMOvRCX4lNiwvSrCE2DGdKW4Wq+e+4PC8G4R9E4zeiXNIvsLfNj0VfdPDdi4SkkTt1Q8Z9PRug==" saltValue="GAjz+eXLliT2JmNGXCJStA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B25:C25"/>
@@ -15616,7 +15654,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="9">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Perfil de Investimento" error="Seleção inválida!!!_x000a_Selecione uma opção conforme lista suspensa." promptTitle="Perfil de Investimento" prompt="Selecione o Perfil de Invesimento" sqref="C63" xr:uid="{89F5DAEE-C21B-40FC-8FFA-883A205E9548}">
       <formula1>"Conservador,Moderado,Agressivo"</formula1>
     </dataValidation>
@@ -15647,10 +15685,13 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N1:O1" r:id="rId1" tooltip="Em caso de dúvidas, sugestões ou elogios, nos envie um e-mail" display="Fale conosco: fernando.j.b.castro@gmail.com" xr:uid="{0503AF12-AD11-40D3-A6B0-68B96305E335}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -16319,7 +16360,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -16583,7 +16624,7 @@
     </row>
     <row r="32" spans="2:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yj6ArTiQXhPPSuFhOLGShw0uT/EE2U478AkOK1iSj29sqLzUesXfrgxtSyaIuG84sbPoqTr5B35ZrwIEVrMS6g==" saltValue="Um9r/+i6MVsmQZ40DXCTUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Okylgv0l55thE/Ruk/PnPxFR1uX25RMglr0CuKbkDRJjH7WOP00QhJethBu8XjPCUrIB7JdZ4IMbtcAPATXceA==" saltValue="fqvEVTbyK2I71q1y/T0N+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>

--- a/Planilha Invest Mais PRO - Simulador Financeiro v1.0.0 PRO.xlsx
+++ b/Planilha Invest Mais PRO - Simulador Financeiro v1.0.0 PRO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos DIO\EXCEL com Inteligência Artificial\Projeto Planilha Invest Mais PRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos DIO\EXCEL com Inteligência Artificial\01. Projeto Planilha Invest Mais PRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6AF361-2BC8-444F-AF1E-B128C2B156C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A903CE74-B753-4446-9A35-4D279E119612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="633" xr2:uid="{A29B5664-DB3A-4E6A-990E-C1614234A5BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="0" xr2:uid="{A29B5664-DB3A-4E6A-990E-C1614234A5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="2" r:id="rId1"/>
@@ -1292,7 +1292,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1591,6 +1591,14 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -1607,28 +1615,20 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1641,14 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1665,6 +1657,26 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1723,21 +1735,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -14741,10 +14738,10 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13:D13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -14765,33 +14762,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="118" t="s">
+      <c r="C1" s="81"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="118"/>
+      <c r="O1" s="98"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3"/>
@@ -14813,22 +14810,22 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:19" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
     </row>
     <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14839,28 +14836,28 @@
       <c r="D13" s="93"/>
     </row>
     <row r="14" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="88"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="18">
         <v>4200</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="90"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="32">
         <v>3500</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="19">
         <v>0.01</v>
       </c>
@@ -14886,38 +14883,38 @@
       <c r="D19" s="93"/>
     </row>
     <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="88"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="76">
         <v>20000</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="90"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="77">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="90"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="20">
         <v>5</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="84"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="23">
         <f>IFERROR(rendimento_carteira,"Enrada Inválida!!!")</f>
         <v>0.01</v>
@@ -14926,10 +14923,10 @@
       <c r="S23" s="39"/>
     </row>
     <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="23">
         <f>IFERROR((taxa_mensal+1)^12-1,"Enrada Inválida!!!")</f>
         <v>0.12682503013196977</v>
@@ -14941,11 +14938,11 @@
         <f t="shared" ref="A25:A30" si="0">B25</f>
         <v>Patrimônio Inicial</v>
       </c>
-      <c r="B25" s="83" t="str">
+      <c r="B25" s="85" t="str">
         <f>B20</f>
         <v>Patrimônio Inicial</v>
       </c>
-      <c r="C25" s="84"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="33">
         <f>patrimonio_inicial</f>
         <v>20000</v>
@@ -14960,10 +14957,10 @@
         <f t="shared" si="0"/>
         <v>Juros Sobre o Partimônio Inicial</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="84"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="33">
         <f>IFERROR(FV(taxa_mensal,qtd_anos*12,,-patrimonio_inicial)-patrimonio_inicial,"Enrada Inválida!!!")</f>
         <v>16333.933971281826</v>
@@ -14978,10 +14975,10 @@
         <f t="shared" si="0"/>
         <v>Total Invesido (Aporte)</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="84"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="33">
         <f>IFERROR(PRODUCT(qtd_anos*12,aporte),"Enrada Inválida!!!")</f>
         <v>30000</v>
@@ -14996,10 +14993,10 @@
         <f t="shared" si="0"/>
         <v>Juros Sobre Total Investido (Aportes)</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="84"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="33">
         <f>IFERROR(patrimonio_final-juros_patrimonio_inicial-patrimonio_inicial-total_investido,"Enrada Inválida!!!")</f>
         <v>10834.834928204575</v>
@@ -15014,10 +15011,10 @@
         <f t="shared" si="0"/>
         <v>Patrimônio Total  Projetado</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="84"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="33">
         <f>IFERROR(FV(taxa_mensal,qtd_anos*12,-aporte)+juros_patrimonio_inicial+patrimonio_inicial,"Enrada Inválida!!!")</f>
         <v>77168.7688994864</v>
@@ -15032,10 +15029,10 @@
         <f t="shared" si="0"/>
         <v>Renda Mensal Estimada (Dividendos Estimados)</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="82"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="78">
         <f>IFERROR(patrimonio_final*rendimento_carteira,"Enrada Inválida!!!")</f>
         <v>771.68768899486406</v>
@@ -15069,80 +15066,80 @@
       <c r="D32" s="93"/>
     </row>
     <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="97"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="30">
         <f>IFERROR(renda_mensal_estimada/salario,"Enrada Inválida!!!")</f>
         <v>0.1837351640463962</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="95"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="23">
         <f>IFERROR(renda_mensal_estimada/despesas_mensais,"Enrada Inválida!!!")</f>
         <v>0.22048219685567544</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="95"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="23">
         <f>IFERROR((patrimonio_final/total_investido)^(1/qtd_anos)-1,"Enrada Inválida!!!")</f>
         <v>0.20799201466796569</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="99"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="23">
         <f>IFERROR(rendimento_total/patrimonio_final,"Enrada Inválida!!!")</f>
         <v>0.1404044030081279</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="84"/>
+      <c r="C37" s="86"/>
       <c r="D37" s="33" t="str">
         <f>IFERROR(TEXT(rendimento_total/total_investido,"R$ ###.###.##0,00"),"Enrada Inválida!!!")</f>
         <v>R$ 0,36</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="84"/>
+      <c r="C38" s="86"/>
       <c r="D38" s="33">
         <f>IFERROR(despesas_mensais/rendimento_carteira,"Enrada Inválida!!!")</f>
         <v>350000</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="84"/>
+      <c r="C39" s="86"/>
       <c r="D39" s="33" t="str">
         <f>IFERROR(TEXT(NPER(taxa_mensal, -aporte, -patrimonio_inicial, patromonio_viver_renda)/12,"###.###.##0,00 ")&amp;"Ano(s)","Enrada Inválida!!!")</f>
         <v>14,60 Ano(s)</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="82"/>
+      <c r="C40" s="84"/>
       <c r="D40" s="31" t="str">
         <f>IFERROR(TEXT(LN(2)/LN(1+taxa_anual),"###.###.##0,00 ")&amp;"Ano(s)","Enrada Inválida!!!")</f>
         <v>5,81 Ano(s)</v>
@@ -15616,18 +15613,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="UYbgnGX1VVgfiMOvRCX4lNiwvSrCE2DGdKW4Wq+e+4PC8G4R9E4zeiXNIvsLfNj0VfdPDdi4SkkTt1Q8Z9PRug==" saltValue="GAjz+eXLliT2JmNGXCJStA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B24:C24"/>
@@ -15644,6 +15629,18 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="D33:D34">
     <cfRule type="iconSet" priority="1">
@@ -16377,33 +16374,33 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
     </row>
     <row r="3" spans="2:6" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="39.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
     </row>
     <row r="5" spans="2:6" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
     </row>
     <row r="7" spans="2:6" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -16498,7 +16495,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="106" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="61" t="s">
@@ -16512,7 +16509,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="104"/>
+      <c r="B16" s="107"/>
       <c r="D16" s="62" t="s">
         <v>74</v>
       </c>
@@ -16532,51 +16529,51 @@
       <c r="B18" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="104"/>
+      <c r="B22" s="107"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="63" t="s">
@@ -16588,34 +16585,34 @@
       <c r="B25" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="100"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="80"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="100" t="s">
+      <c r="E26" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="100"/>
+      <c r="F26" s="103"/>
       <c r="G26" s="80"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="100"/>
+      <c r="F27" s="103"/>
       <c r="G27" s="80"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E28" s="100" t="s">
+      <c r="E28" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="100"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="80"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
